--- a/data/hotels_by_city/Denver/Denver_shard_19.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_19.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33329-d4177718-Reviews-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Candlewood-Suites-Denver-Northeast-Brighton.h5576188.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,486 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r542051377-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>33329</t>
+  </si>
+  <si>
+    <t>4177718</t>
+  </si>
+  <si>
+    <t>542051377</t>
+  </si>
+  <si>
+    <t>11/19/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice people,close to highway, too much carpet fresh. </t>
+  </si>
+  <si>
+    <t>For basically an airport hotel it was okay. Clean big rooms and pizza for guests upon checkin after 6. The negative it is right on the highway and they use way way too much carpet cleaner in the rooms. The carpet fresh or other cleaning fabreeze like cleaners are over done.  Burning to the nose and a bit dizzying. Also since it's on the highway which is beyond loud you can't even get fresh air without it sounding like a freight train in your room. Because of the rough chemicals it will be a one time at this hotel for me. I hope in the future they go with green non choking cleaning products if they change I'd go back. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>For basically an airport hotel it was okay. Clean big rooms and pizza for guests upon checkin after 6. The negative it is right on the highway and they use way way too much carpet cleaner in the rooms. The carpet fresh or other cleaning fabreeze like cleaners are over done.  Burning to the nose and a bit dizzying. Also since it's on the highway which is beyond loud you can't even get fresh air without it sounding like a freight train in your room. Because of the rough chemicals it will be a one time at this hotel for me. I hope in the future they go with green non choking cleaning products if they change I'd go back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r503449703-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>503449703</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Excellent location, outstanding service and clean</t>
+  </si>
+  <si>
+    <t>Very convenient access to the airport, but not in the airport parking lot. Room was comfortable, clean and quiet.  20 min drive to the airport, low traffic and easy access without paying on the toll road.  Front desk very service oriented, helped us print our boarding passes because their business office printer was not working.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Candlewood Suites Denver Northeast - Brighton, responded to this reviewResponded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Very convenient access to the airport, but not in the airport parking lot. Room was comfortable, clean and quiet.  20 min drive to the airport, low traffic and easy access without paying on the toll road.  Front desk very service oriented, helped us print our boarding passes because their business office printer was not working.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r500445274-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>500445274</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Clean, inexpensive, no-frills hotel, great location for accessing Denver Intl airport</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel on numerous occasions when flying into and out of Denver International airport on business. I like the location and also the fact that it is part of the IHG hotel chain.I used to be a regular business traveler and since IHG hotels, primarily Holiday Inns and Holiday Inn Expresses, are located all over the world, and also since the points reward program with IHG is excellent, I tended to stay in IHG locations a lot. I also still have lots of points left over since I retired so I still often stay at IHG hotels. One of the things I've always liked about IHG is that you can use a reasonable amount of points to book a room, often 15,000/night and on occasion as low as 5,000/night for special promotions. Contrast that with Hilton where it usually takes 40,000 or more points a night to stay at a Hilton, or even a DoubleTree.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Candlewood Suites Denver Northeast - Brighton, responded to this reviewResponded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel on numerous occasions when flying into and out of Denver International airport on business. I like the location and also the fact that it is part of the IHG hotel chain.I used to be a regular business traveler and since IHG hotels, primarily Holiday Inns and Holiday Inn Expresses, are located all over the world, and also since the points reward program with IHG is excellent, I tended to stay in IHG locations a lot. I also still have lots of points left over since I retired so I still often stay at IHG hotels. One of the things I've always liked about IHG is that you can use a reasonable amount of points to book a room, often 15,000/night and on occasion as low as 5,000/night for special promotions. Contrast that with Hilton where it usually takes 40,000 or more points a night to stay at a Hilton, or even a DoubleTree.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r443329120-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>443329120</t>
+  </si>
+  <si>
+    <t>12/10/2016</t>
+  </si>
+  <si>
+    <t>Great Place!</t>
+  </si>
+  <si>
+    <t>This hotel was very nice. It was very well decorated, clean and they had a friendly front desk clerk Stephen. I was very impressed to learn that they had a full blue ray DVD collection of movies you can rent and watch in your room, as well as a book library you can check out books to read too! Then there's board games, card decks, full size toaster ovens, crock pots, full size coffee pots, even a griddle available for check out. This place is able to accommodate long stay guests as well. The bed was comfy, thermostat wall controlled, and a nice recliner and huge desk. Free wifi.The only thing is they don't have a free hot breakfast. They did have free hot coffee and fruit available, though. They also offer a nice Veteran's discount that gave us a VERY great rate for how nice the place is! MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Candlewood Suites Denver Northeast - Brighton, responded to this reviewResponded December 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2016</t>
+  </si>
+  <si>
+    <t>This hotel was very nice. It was very well decorated, clean and they had a friendly front desk clerk Stephen. I was very impressed to learn that they had a full blue ray DVD collection of movies you can rent and watch in your room, as well as a book library you can check out books to read too! Then there's board games, card decks, full size toaster ovens, crock pots, full size coffee pots, even a griddle available for check out. This place is able to accommodate long stay guests as well. The bed was comfy, thermostat wall controlled, and a nice recliner and huge desk. Free wifi.The only thing is they don't have a free hot breakfast. They did have free hot coffee and fruit available, though. They also offer a nice Veteran's discount that gave us a VERY great rate for how nice the place is! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r418996447-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>418996447</t>
+  </si>
+  <si>
+    <t>09/15/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home away from home </t>
+  </si>
+  <si>
+    <t>Great location, great staff.  Brought our 1st grader and little dog for a 10 day stay over the summer and we're totally impressed with their hospitality.  From the games , movies and toaster ovens in the lending locker to the nicely stocked pantry (foods for purchase) this hotel made us feel completely at home.  Very dog friendly with a  dog run that is well maintained and the grounds are clean.  They offer everything needed for an extended stay including complimentary washers and dryers and towel replacements whenever you like.  We were so impressed that when we had to come back to Brighton we booked this hotel again and experienced the same enjoyable stay.  Can't say enough about the staff.  They went out of their way to accommodate. The only negative to the rooms we stayed in was the air conditioners have an energy saver feature that makes them shutoff if there is no movement in the room.  So...during the night they didn't run all night and we woke up a little hot.  But not so hot that you couldn't sleep.  The rooms were clean and kitchens well equipped.  We cooked breakfasts and dinners many nights.  Air conditioner situation aside this place has it all and makes you feel they are pleased you chose them.  Next time we're in the area, we'll definitely book here again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Candlewood Suites Denver Northeast - Brighton, responded to this reviewResponded September 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2016</t>
+  </si>
+  <si>
+    <t>Great location, great staff.  Brought our 1st grader and little dog for a 10 day stay over the summer and we're totally impressed with their hospitality.  From the games , movies and toaster ovens in the lending locker to the nicely stocked pantry (foods for purchase) this hotel made us feel completely at home.  Very dog friendly with a  dog run that is well maintained and the grounds are clean.  They offer everything needed for an extended stay including complimentary washers and dryers and towel replacements whenever you like.  We were so impressed that when we had to come back to Brighton we booked this hotel again and experienced the same enjoyable stay.  Can't say enough about the staff.  They went out of their way to accommodate. The only negative to the rooms we stayed in was the air conditioners have an energy saver feature that makes them shutoff if there is no movement in the room.  So...during the night they didn't run all night and we woke up a little hot.  But not so hot that you couldn't sleep.  The rooms were clean and kitchens well equipped.  We cooked breakfasts and dinners many nights.  Air conditioner situation aside this place has it all and makes you feel they are pleased you chose them.  Next time we're in the area, we'll definitely book here again.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r418216045-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>418216045</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>Comfortable, Clean with fun Artistic Decor</t>
+  </si>
+  <si>
+    <t>This is a long overdue review, but I had to make sure I wrote about this hotel. I was travelling at night on Rt. 76 in Colorado and needed to stop for a night. I always look to see what hotels I may be near where I can use my points and discovered this property. This was my first time staying at a Candlewood and it won't be my last. Upon entry I loved the colorful lobby decor, this is where the artistic comes in and if my memory serves me well, there was a sculpture that caught my eye. The lobby and common spaces are very clean, and the front desk staff extremely friendly. I was quite surprised to see how large my room was with the kitchen space. The room was very neat, clean and modern. It's a perfect location for a short or long stay. Again this review is overdue, beyond the travel date Trips Advisor allows for, but I needed to express how wonderful this location is.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>This is a long overdue review, but I had to make sure I wrote about this hotel. I was travelling at night on Rt. 76 in Colorado and needed to stop for a night. I always look to see what hotels I may be near where I can use my points and discovered this property. This was my first time staying at a Candlewood and it won't be my last. Upon entry I loved the colorful lobby decor, this is where the artistic comes in and if my memory serves me well, there was a sculpture that caught my eye. The lobby and common spaces are very clean, and the front desk staff extremely friendly. I was quite surprised to see how large my room was with the kitchen space. The room was very neat, clean and modern. It's a perfect location for a short or long stay. Again this review is overdue, beyond the travel date Trips Advisor allows for, but I needed to express how wonderful this location is.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r384764784-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>384764784</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>Longterm stay</t>
+  </si>
+  <si>
+    <t>This hotel is top shelf. If your looking for a place to support your away from home, comfort class and hospitality you'll find it here. I stayed with 2 dogs here for 15weeks. Everyone from front desk, to maintenance, and of course housekeeping went above and beyond for my comfort making me feel at home rather than a temporary guest. The manager was visible and stayed in tune with the guests, even came and personally attended needs as warranted. I've traveled the country, this by far exceeded any stay hands down. I was sad to leave, but hope to see them all again someday. If you decide to look further than this post, it's your loss. Exceptional hands down, clean awesome place!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Candlewood Suites Denver Northeast - Brighton, responded to this reviewResponded June 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is top shelf. If your looking for a place to support your away from home, comfort class and hospitality you'll find it here. I stayed with 2 dogs here for 15weeks. Everyone from front desk, to maintenance, and of course housekeeping went above and beyond for my comfort making me feel at home rather than a temporary guest. The manager was visible and stayed in tune with the guests, even came and personally attended needs as warranted. I've traveled the country, this by far exceeded any stay hands down. I was sad to leave, but hope to see them all again someday. If you decide to look further than this post, it's your loss. Exceptional hands down, clean awesome place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r369607695-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>369607695</t>
+  </si>
+  <si>
+    <t>05/02/2016</t>
+  </si>
+  <si>
+    <t>Comfortable Hotel at a great price!</t>
+  </si>
+  <si>
+    <t>Rooms are amazing. The rooms are more like a studio apartment than a hotel. They are very spacious and the kitchenettes have everything you would need to cook. Nice sized fridge. Hotel staff is always very friendly. It is in a great location, right off of I-76.MoreShow less</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Candlewood Suites Denver Northeast - Brighton, responded to this reviewResponded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Rooms are amazing. The rooms are more like a studio apartment than a hotel. They are very spacious and the kitchenettes have everything you would need to cook. Nice sized fridge. Hotel staff is always very friendly. It is in a great location, right off of I-76.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r320954454-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>320954454</t>
+  </si>
+  <si>
+    <t>10/22/2015</t>
+  </si>
+  <si>
+    <t>Eh</t>
+  </si>
+  <si>
+    <t>Nice hotel. Looks good. Good set up and all. I've stayed at Candlewoods before. I didnt appreciate the staff though. They were just below competent. None of them on the same page. Really didn't do anything for me besides take my card and run it for a week in advance. They want there money as fast as possible and will not hesitate to bang on your door to get it. Not to mention, if you're staying over a week, you don't get housekeeping but once a week, so you're paying for a nice hotel that only cleans up once a week. Might as well have an apartment. Cheaper that way. Like I said, nice place, but I don't believe the amenities make up for the price and poor service.MoreShow less</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Candlewood Suites Denver Northeast - Brighton, responded to this reviewResponded October 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2015</t>
+  </si>
+  <si>
+    <t>Nice hotel. Looks good. Good set up and all. I've stayed at Candlewoods before. I didnt appreciate the staff though. They were just below competent. None of them on the same page. Really didn't do anything for me besides take my card and run it for a week in advance. They want there money as fast as possible and will not hesitate to bang on your door to get it. Not to mention, if you're staying over a week, you don't get housekeeping but once a week, so you're paying for a nice hotel that only cleans up once a week. Might as well have an apartment. Cheaper that way. Like I said, nice place, but I don't believe the amenities make up for the price and poor service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r270163067-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>270163067</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>Nice, clean room and ground. GREAT Staff!</t>
+  </si>
+  <si>
+    <t>I had five employees working in Brighton that needed rooms for random amounts of time, ranging from 1 night to just over a month.  The general manager and director of sales were my points of contact and they were extremely accommodating and very friendly.  I would go back just to support them, because that's how nice they were.  But other than that, our employees had commented on how nice of a hotel it was.  A hotel's quality usually stems from the staff, and I knew that if management was that good, then the hotel must be great.  Our employees said that it was very clean and came with all the amenities to make even the longest stay feel like a home away from home.  I would recommend this hotel to anyone staying in the area.  We had stayed at multiple other hotels in the area, all around the same price range, and this by far stands out and we will be going back to it.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Candlewood Suites Denver Northeast - Brighton, responded to this reviewResponded May 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2015</t>
+  </si>
+  <si>
+    <t>I had five employees working in Brighton that needed rooms for random amounts of time, ranging from 1 night to just over a month.  The general manager and director of sales were my points of contact and they were extremely accommodating and very friendly.  I would go back just to support them, because that's how nice they were.  But other than that, our employees had commented on how nice of a hotel it was.  A hotel's quality usually stems from the staff, and I knew that if management was that good, then the hotel must be great.  Our employees said that it was very clean and came with all the amenities to make even the longest stay feel like a home away from home.  I would recommend this hotel to anyone staying in the area.  We had stayed at multiple other hotels in the area, all around the same price range, and this by far stands out and we will be going back to it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r267610544-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>267610544</t>
+  </si>
+  <si>
+    <t>04/23/2015</t>
+  </si>
+  <si>
+    <t>WORST STAY I'VE EVER EXPERIENCED!!!</t>
+  </si>
+  <si>
+    <t>I would have to say this hotel is the most overpriced garbage I have ever wasted money on!! Coming in to Candlewood Suites I thought would be a decent place to bring my family to rest for the night,but was I wrong.After checking in, my family and I head up stairs. When we got to our room we open the door and this unbearable smell filled the whole room!!! We spent hours looking for this god awful smell, while looking for this awful smell my 7yr old finds a porn disk in our dvd player! ALSO I found a used condom behind the recliner!! Just when I was scared to look any where else my husband pulls out the fridge to find a died MOUSE!!! (Explains the smell) I could honestly say I stood in that room for about an hour when I decided to just go back on the road and continue our trip. It's a shame how much money I spent on this crappy room when I could of used it for a family trip!!!! THANKS ALOT CANDLEWOODMoreShow less</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Candlewood Suites Denver Northeast - Brighton, responded to this reviewResponded May 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2015</t>
+  </si>
+  <si>
+    <t>I would have to say this hotel is the most overpriced garbage I have ever wasted money on!! Coming in to Candlewood Suites I thought would be a decent place to bring my family to rest for the night,but was I wrong.After checking in, my family and I head up stairs. When we got to our room we open the door and this unbearable smell filled the whole room!!! We spent hours looking for this god awful smell, while looking for this awful smell my 7yr old finds a porn disk in our dvd player! ALSO I found a used condom behind the recliner!! Just when I was scared to look any where else my husband pulls out the fridge to find a died MOUSE!!! (Explains the smell) I could honestly say I stood in that room for about an hour when I decided to just go back on the road and continue our trip. It's a shame how much money I spent on this crappy room when I could of used it for a family trip!!!! THANKS ALOT CANDLEWOODMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r257441899-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>257441899</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>Quick Stopover</t>
+  </si>
+  <si>
+    <t>Got in late and left early but our quick overnight couldn't have gone better. Fantastic front desk service, clean rooms, location right off the highway and lots of restaurants close by. I would recommend this hotel to anyone needing an overnight stay in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Candlewood Suites Denver Northeast - Brighton, responded to this reviewResponded March 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2015</t>
+  </si>
+  <si>
+    <t>Got in late and left early but our quick overnight couldn't have gone better. Fantastic front desk service, clean rooms, location right off the highway and lots of restaurants close by. I would recommend this hotel to anyone needing an overnight stay in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r227261469-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>227261469</t>
+  </si>
+  <si>
+    <t>09/06/2014</t>
+  </si>
+  <si>
+    <t>brilliant stopover</t>
+  </si>
+  <si>
+    <t>*11 miles easy drive north of Denver airport*next to Holiday Inn Express*short drive to JC Penny, McDonalds and supermarket*warm welcome*room spacious and clean*kitchen-microwave, fridge/freezer, small hob, coffeemaker*small inhouse 'shop'near to reception which operated an honour payment system.Would highly recommend after long flight if travelling north out of Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Brian M, General Manager at Candlewood Suites Denver Northeast - Brighton, responded to this reviewResponded September 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2014</t>
+  </si>
+  <si>
+    <t>*11 miles easy drive north of Denver airport*next to Holiday Inn Express*short drive to JC Penny, McDonalds and supermarket*warm welcome*room spacious and clean*kitchen-microwave, fridge/freezer, small hob, coffeemaker*small inhouse 'shop'near to reception which operated an honour payment system.Would highly recommend after long flight if travelling north out of Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r225796412-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>225796412</t>
+  </si>
+  <si>
+    <t>08/31/2014</t>
+  </si>
+  <si>
+    <t>Towel Exchange?</t>
+  </si>
+  <si>
+    <t>This is a newer hotel, we made a 3 day reservation online while driving to Brighton from Seattle with our daughter for a funeral. Our first impression should have been an indication, the lot was full of construction trucks. We checked in late and the front counter young lady who checked us in was unable to locate the luggage cart. She said that the construction guys use them and leave them in their rooms.??She politely offered to help us carry our luggage to our room.  When we entered the room the first thing we noticed was a Large grease hand print on the wall by the bathroom door and several small oil stains on the carpet. The flooring is already well traveled. The thing that took us by surprise was that in order to get replacement towels and wash cloths for the ones we had already used was to carry them all down to the front counter and exchange them for clean towels. If we could have found different accommodations close by we would have done so but our reasons for our visit didn't allow us time. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Brian M, General Manager at Candlewood Suites Denver Northeast - Brighton, responded to this reviewResponded September 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2014</t>
+  </si>
+  <si>
+    <t>This is a newer hotel, we made a 3 day reservation online while driving to Brighton from Seattle with our daughter for a funeral. Our first impression should have been an indication, the lot was full of construction trucks. We checked in late and the front counter young lady who checked us in was unable to locate the luggage cart. She said that the construction guys use them and leave them in their rooms.??She politely offered to help us carry our luggage to our room.  When we entered the room the first thing we noticed was a Large grease hand print on the wall by the bathroom door and several small oil stains on the carpet. The flooring is already well traveled. The thing that took us by surprise was that in order to get replacement towels and wash cloths for the ones we had already used was to carry them all down to the front counter and exchange them for clean towels. If we could have found different accommodations close by we would have done so but our reasons for our visit didn't allow us time. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r225134511-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>225134511</t>
+  </si>
+  <si>
+    <t>08/28/2014</t>
+  </si>
+  <si>
+    <t>Best Summer Hotel in Brighton Area!</t>
+  </si>
+  <si>
+    <t>Our family this summer was traveling from California to the east coast and we needed a place to stop at. So we stayed at the Candlewood Suites in Brighton and it was very clean, new, and the best staff I have ever had when staying at a hotel. I believe we had Nate check us in and was very helpful with providing us with great service and also directions to our families favorite restaurant Chili's. We also would like to thank Pam the housekeeper manager for being so kind to our kids. We definitely will be staying here in the future when passing through on our family road trips! Thanks again,The Carty FamilyMoreShow less</t>
+  </si>
+  <si>
+    <t>Our family this summer was traveling from California to the east coast and we needed a place to stop at. So we stayed at the Candlewood Suites in Brighton and it was very clean, new, and the best staff I have ever had when staying at a hotel. I believe we had Nate check us in and was very helpful with providing us with great service and also directions to our families favorite restaurant Chili's. We also would like to thank Pam the housekeeper manager for being so kind to our kids. We definitely will be staying here in the future when passing through on our family road trips! Thanks again,The Carty FamilyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r191386447-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>191386447</t>
+  </si>
+  <si>
+    <t>01/19/2014</t>
+  </si>
+  <si>
+    <t>Worst hotel stay ive had</t>
+  </si>
+  <si>
+    <t>While the room was nice. My maid service which was weekly was never on time always a day or so longer than a week. The bed was fine but the pillows I had to go buy one because both my co worker and I kept waking up with a pain in our neck. The store is over priced and about the only upside was free laundry room. Won't stay again not with holiday inn across the way or Hampton Inn down the streetMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Candlewood Suites Denver Northeast - Brighton, responded to this reviewResponded January 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2014</t>
+  </si>
+  <si>
+    <t>While the room was nice. My maid service which was weekly was never on time always a day or so longer than a week. The bed was fine but the pillows I had to go buy one because both my co worker and I kept waking up with a pain in our neck. The store is over priced and about the only upside was free laundry room. Won't stay again not with holiday inn across the way or Hampton Inn down the streetMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r168399991-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>168399991</t>
+  </si>
+  <si>
+    <t>07/21/2013</t>
+  </si>
+  <si>
+    <t>Simply the Best for Extended Stay</t>
+  </si>
+  <si>
+    <t>We just ended a two week stay at this brand new facility. The suites are immaculate and quite spacious. Our room included a refrigerator/freezer, microwave, and stovetop. Free wifi was important to me and had more than adequate speed. The bed was very comfortable and the bathroom was a generous size. We are traveling with our faithful old dog and she was also treated as a welcome guest. There is a very nice grass pet walking area adjacent to the hotel. Above all, the staff from GM to maintenance and cleaning people were friendly and willing to bend over backwards to please. They made it great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Candlewood Suites Denver Northeast - Brighton, responded to this reviewResponded July 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2013</t>
+  </si>
+  <si>
+    <t>We just ended a two week stay at this brand new facility. The suites are immaculate and quite spacious. Our room included a refrigerator/freezer, microwave, and stovetop. Free wifi was important to me and had more than adequate speed. The bed was very comfortable and the bathroom was a generous size. We are traveling with our faithful old dog and she was also treated as a welcome guest. There is a very nice grass pet walking area adjacent to the hotel. Above all, the staff from GM to maintenance and cleaning people were friendly and willing to bend over backwards to please. They made it great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r166276425-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>166276425</t>
+  </si>
+  <si>
+    <t>07/04/2013</t>
+  </si>
+  <si>
+    <t>Great hotel at a great price!!!</t>
+  </si>
+  <si>
+    <t>My girlfriend and I stayed here a few weeks ago while passing through.  The hotel had only been open for about 1 week at the time of our stay.  Everything is brand new, clean and the staff was very friendly!  The room was basically a studio apartment as it had a countertop stove, a big and nice microwave, full size fridge/freezer, sink, dishwasher, dishes, silverware, tupperware, etc.  We were ever suprised to find a free package of microwave popcorn in the microwave for us (unpopped of course)  The hotel has a free DVD movie rental at the front desk with a good selection of titles which was great.  There is also a good sized workout room and a small convinence store where you can get some drinks, food, snacks, medicine etc which was very nice.  The bed was confortable and we had a great night watching our free movie and enjoying our free popcorn.  If I am in the area I would stay again for sure.  There are several stores and places to eat within a minutes drive such as ChickFilet, McDonalds, Subway, Chillis, Buffalo Wild Wings etc.  Stores include PetsMart, Home Depot, Super Target, Dicks Sporting Goods and numerous other stores ( I dont remember all of them).MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Candlewood Suites Denver Northeast - Brighton, responded to this reviewResponded July 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2013</t>
+  </si>
+  <si>
+    <t>My girlfriend and I stayed here a few weeks ago while passing through.  The hotel had only been open for about 1 week at the time of our stay.  Everything is brand new, clean and the staff was very friendly!  The room was basically a studio apartment as it had a countertop stove, a big and nice microwave, full size fridge/freezer, sink, dishwasher, dishes, silverware, tupperware, etc.  We were ever suprised to find a free package of microwave popcorn in the microwave for us (unpopped of course)  The hotel has a free DVD movie rental at the front desk with a good selection of titles which was great.  There is also a good sized workout room and a small convinence store where you can get some drinks, food, snacks, medicine etc which was very nice.  The bed was confortable and we had a great night watching our free movie and enjoying our free popcorn.  If I am in the area I would stay again for sure.  There are several stores and places to eat within a minutes drive such as ChickFilet, McDonalds, Subway, Chillis, Buffalo Wild Wings etc.  Stores include PetsMart, Home Depot, Super Target, Dicks Sporting Goods and numerous other stores ( I dont remember all of them).More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1018,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1050,1229 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>62496</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>62496</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>62496</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>62496</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>62496</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>62496</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>62496</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>62496</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>62496</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>62496</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>130</v>
+      </c>
+      <c r="O11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>131</v>
+      </c>
+      <c r="X11" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>62496</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>130</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>139</v>
+      </c>
+      <c r="X12" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>62496</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>147</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>148</v>
+      </c>
+      <c r="X13" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>62496</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>156</v>
+      </c>
+      <c r="O14" t="s">
+        <v>157</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>158</v>
+      </c>
+      <c r="X14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>62496</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" t="s">
+        <v>165</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>166</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>167</v>
+      </c>
+      <c r="X15" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>62496</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>171</v>
+      </c>
+      <c r="J16" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16" t="s">
+        <v>173</v>
+      </c>
+      <c r="L16" t="s">
+        <v>174</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>166</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>167</v>
+      </c>
+      <c r="X16" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>62496</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>177</v>
+      </c>
+      <c r="J17" t="s">
+        <v>178</v>
+      </c>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" t="s">
+        <v>180</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>181</v>
+      </c>
+      <c r="O17" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>182</v>
+      </c>
+      <c r="X17" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>62496</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" t="s">
+        <v>187</v>
+      </c>
+      <c r="K18" t="s">
+        <v>188</v>
+      </c>
+      <c r="L18" t="s">
+        <v>189</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>190</v>
+      </c>
+      <c r="O18" t="s">
+        <v>157</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>191</v>
+      </c>
+      <c r="X18" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>62496</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>195</v>
+      </c>
+      <c r="J19" t="s">
+        <v>196</v>
+      </c>
+      <c r="K19" t="s">
+        <v>197</v>
+      </c>
+      <c r="L19" t="s">
+        <v>198</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>199</v>
+      </c>
+      <c r="O19" t="s">
+        <v>157</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>200</v>
+      </c>
+      <c r="X19" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_19.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_19.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="303">
   <si>
     <t>STR#</t>
   </si>
@@ -147,18 +147,66 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/01/2018</t>
+    <t>08/30/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r564093573-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>33329</t>
+  </si>
+  <si>
+    <t>4177718</t>
+  </si>
+  <si>
+    <t>564093573</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>Great location for visit to North Denver, CO</t>
+  </si>
+  <si>
+    <t>This was a short 3-day stay for an extended stay hotel. It had a full kitchen but no daily maid service which was OK but I had to ask for more coffee. Other than that it was great! It was a short drive into town and to the airport for an early departure. Close to good stores and restaurants too.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r526137119-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>526137119</t>
+  </si>
+  <si>
+    <t>09/20/2017</t>
+  </si>
+  <si>
+    <t>Excellent stay!</t>
+  </si>
+  <si>
+    <t>We booked a different hotel for the first night there because we weren't sure where we needed to be. Horrible place. So I booked the Candlewood and my only regret was not staying here the first night too! Clean, quite, and the staff was wonderful! Wish they had a hot tub, but as far as a place to stay it was wonderful!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Candlewood Suites Denver Northeast - Brighton, responded to this reviewResponded September 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2017</t>
+  </si>
+  <si>
+    <t>We booked a different hotel for the first night there because we weren't sure where we needed to be. Horrible place. So I booked the Candlewood and my only regret was not staying here the first night too! Clean, quite, and the staff was wonderful! Wish they had a hot tub, but as far as a place to stay it was wonderful!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r542051377-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
   </si>
   <si>
-    <t>33329</t>
-  </si>
-  <si>
-    <t>4177718</t>
-  </si>
-  <si>
     <t>542051377</t>
   </si>
   <si>
@@ -228,9 +276,6 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>DENWR, Owner at Candlewood Suites Denver Northeast - Brighton, responded to this reviewResponded July 13, 2017</t>
   </si>
   <si>
@@ -240,6 +285,57 @@
     <t>I have stayed at this hotel on numerous occasions when flying into and out of Denver International airport on business. I like the location and also the fact that it is part of the IHG hotel chain.I used to be a regular business traveler and since IHG hotels, primarily Holiday Inns and Holiday Inn Expresses, are located all over the world, and also since the points reward program with IHG is excellent, I tended to stay in IHG locations a lot. I also still have lots of points left over since I retired so I still often stay at IHG hotels. One of the things I've always liked about IHG is that you can use a reasonable amount of points to book a room, often 15,000/night and on occasion as low as 5,000/night for special promotions. Contrast that with Hilton where it usually takes 40,000 or more points a night to stay at a Hilton, or even a DoubleTree.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r492051933-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>492051933</t>
+  </si>
+  <si>
+    <t>06/10/2017</t>
+  </si>
+  <si>
+    <t>Very Nice!</t>
+  </si>
+  <si>
+    <t>If you find yourself needing a place to stay in Denver's northeast suburbs this hotel is an excellent option. We spent four nights there and were impressed by the friendly staff. And it is clean, clean, clean. I also appreciated the hotel's general accessibility for my disabled husband. Our suite was spacious and had a nicely equipped kitchen with a fridge, microwave, and cooktop. The flat-screen TVs were great and the wireless was fast and reliable. My two dogs enjoyed a nice doggy duty area that came supplied with bunnies that added much interest to potty time. It was also nice and quiet, but very close to a large mall with numerous fast and casual dining options. It is a hotel intended for extended stays so there is no breakfast and housekeeping is done on a weekly basis. However, the hotel has a well-stocked "cupboard" with lots of options for breakfast in your room. The coffee available there was also outstanding. Although we did not use either, the gym and laundry facilities looked to be very good. Overall, I would highly recommend this hotel and will stay there again if we should return to the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Candlewood Suites Denver Northeast - Brighton, responded to this reviewResponded June 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2017</t>
+  </si>
+  <si>
+    <t>If you find yourself needing a place to stay in Denver's northeast suburbs this hotel is an excellent option. We spent four nights there and were impressed by the friendly staff. And it is clean, clean, clean. I also appreciated the hotel's general accessibility for my disabled husband. Our suite was spacious and had a nicely equipped kitchen with a fridge, microwave, and cooktop. The flat-screen TVs were great and the wireless was fast and reliable. My two dogs enjoyed a nice doggy duty area that came supplied with bunnies that added much interest to potty time. It was also nice and quiet, but very close to a large mall with numerous fast and casual dining options. It is a hotel intended for extended stays so there is no breakfast and housekeeping is done on a weekly basis. However, the hotel has a well-stocked "cupboard" with lots of options for breakfast in your room. The coffee available there was also outstanding. Although we did not use either, the gym and laundry facilities looked to be very good. Overall, I would highly recommend this hotel and will stay there again if we should return to the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r487537524-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>487537524</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>Could not ask for better people to work in this line of business.  They will do everything in their power to make your stay fantastic.   With the added bonus of clean rooms, really comfortable beds and of course the free laundry this is the place to stay in Brighton!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Candlewood Suites Denver Northeast - Brighton, responded to this reviewResponded May 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2017</t>
+  </si>
+  <si>
+    <t>Could not ask for better people to work in this line of business.  They will do everything in their power to make your stay fantastic.   With the added bonus of clean rooms, really comfortable beds and of course the free laundry this is the place to stay in Brighton!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r443329120-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
   </si>
   <si>
@@ -318,6 +414,63 @@
     <t>This is a long overdue review, but I had to make sure I wrote about this hotel. I was travelling at night on Rt. 76 in Colorado and needed to stop for a night. I always look to see what hotels I may be near where I can use my points and discovered this property. This was my first time staying at a Candlewood and it won't be my last. Upon entry I loved the colorful lobby decor, this is where the artistic comes in and if my memory serves me well, there was a sculpture that caught my eye. The lobby and common spaces are very clean, and the front desk staff extremely friendly. I was quite surprised to see how large my room was with the kitchen space. The room was very neat, clean and modern. It's a perfect location for a short or long stay. Again this review is overdue, beyond the travel date Trips Advisor allows for, but I needed to express how wonderful this location is.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r393951613-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>393951613</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>Comfortable and Clean</t>
+  </si>
+  <si>
+    <t>We spent one night here before an early morning flight.   This was my first time to stay at a Candlewood property, but it won't be the last.  The room was huge with a full kitchen, lots of counter and work space, large bath and comfortable bed.  The common area is inviting and there are all sorts of appliance and games you can borrow, which is a nice touch for an extended stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Candlewood Suites Denver Northeast - Brighton, responded to this reviewResponded July 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2016</t>
+  </si>
+  <si>
+    <t>We spent one night here before an early morning flight.   This was my first time to stay at a Candlewood property, but it won't be the last.  The room was huge with a full kitchen, lots of counter and work space, large bath and comfortable bed.  The common area is inviting and there are all sorts of appliance and games you can borrow, which is a nice touch for an extended stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r393554383-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>393554383</t>
+  </si>
+  <si>
+    <t>07/17/2016</t>
+  </si>
+  <si>
+    <t>Quality lodging near the airprt</t>
+  </si>
+  <si>
+    <t>We stayed here for one night.  The hotel is in a very newly developed area, and the grounds were very clean.  We arrived around 11:00, and were promptly greeted at the concierge desk.  Check in was a breeze, and the clerk was very friendly.I didn't know at the time of booking, but this is an extended stay hotel, so the room we had also contained a small kitchen area, a stovetop, &amp; a full size refrigerator.  Everything was very clean &amp; tidy.Literally my only complaint has to be that the bedrooms don't have full drapes, just the thinner lining sheet that is normally covered by the drape &amp; obscures the view from outside.  Thus, when morning rolled around, we were blasted with sunlight without the option to keep the room darker.Of note, this hotel did appear to have a lending library of movies, boardgames, books, etc, which is a really nice convenience for families or any traveling folks who like to game.Highly recommend and will consider staying here in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Candlewood Suites Denver Northeast - Brighton, responded to this reviewResponded July 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here for one night.  The hotel is in a very newly developed area, and the grounds were very clean.  We arrived around 11:00, and were promptly greeted at the concierge desk.  Check in was a breeze, and the clerk was very friendly.I didn't know at the time of booking, but this is an extended stay hotel, so the room we had also contained a small kitchen area, a stovetop, &amp; a full size refrigerator.  Everything was very clean &amp; tidy.Literally my only complaint has to be that the bedrooms don't have full drapes, just the thinner lining sheet that is normally covered by the drape &amp; obscures the view from outside.  Thus, when morning rolled around, we were blasted with sunlight without the option to keep the room darker.Of note, this hotel did appear to have a lending library of movies, boardgames, books, etc, which is a really nice convenience for families or any traveling folks who like to game.Highly recommend and will consider staying here in the future.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r384764784-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
   </si>
   <si>
@@ -393,15 +546,66 @@
     <t>Nice hotel. Looks good. Good set up and all. I've stayed at Candlewoods before. I didnt appreciate the staff though. They were just below competent. None of them on the same page. Really didn't do anything for me besides take my card and run it for a week in advance. They want there money as fast as possible and will not hesitate to bang on your door to get it. Not to mention, if you're staying over a week, you don't get housekeeping but once a week, so you're paying for a nice hotel that only cleans up once a week. Might as well have an apartment. Cheaper that way. Like I said, nice place, but I don't believe the amenities make up for the price and poor service.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r312986850-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>312986850</t>
+  </si>
+  <si>
+    <t>09/23/2015</t>
+  </si>
+  <si>
+    <t>Good...except for the guy upstairs who kept pacing around with what appeared to be tap shoes at 4:30 a.m.</t>
+  </si>
+  <si>
+    <t>This is a nice, clean hotel with lots of great amenities, including a kitchen. It's a good location in a bit quieter of an area with options for restaurants not too far away. While the room is quiet on both sides, the floor/ceiling must be thin as I was awoken around 4:30 by what I can only imagine was Animal from The Muppets working on his tap dancing routine. I never did go back to sleep. Not the hotel or staff's fault...just unfortunate. Still a nice hotel and the "cupboard" is pretty decent with light food options (overpriced though)MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Candlewood Suites Denver Northeast - Brighton, responded to this reviewResponded September 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2015</t>
+  </si>
+  <si>
+    <t>This is a nice, clean hotel with lots of great amenities, including a kitchen. It's a good location in a bit quieter of an area with options for restaurants not too far away. While the room is quiet on both sides, the floor/ceiling must be thin as I was awoken around 4:30 by what I can only imagine was Animal from The Muppets working on his tap dancing routine. I never did go back to sleep. Not the hotel or staff's fault...just unfortunate. Still a nice hotel and the "cupboard" is pretty decent with light food options (overpriced though)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r270199006-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>270199006</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>Over Priced one night stay with no amenities!</t>
+  </si>
+  <si>
+    <t>This hotel is fairly new and poorly designed.  The rooms are clean enough but poorly set up.  They have kitchens which take up most of the room.  No Pool. No hot tub. no Breakfast.  Leave this one to the construction workers who were the majority of the guests.  PS---THE BEDS ARE TERRIBLY HARD!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Candlewood Suites Denver Northeast - Brighton, responded to this reviewResponded May 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is fairly new and poorly designed.  The rooms are clean enough but poorly set up.  They have kitchens which take up most of the room.  No Pool. No hot tub. no Breakfast.  Leave this one to the construction workers who were the majority of the guests.  PS---THE BEDS ARE TERRIBLY HARD!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r270163067-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
   </si>
   <si>
     <t>270163067</t>
   </si>
   <si>
-    <t>05/05/2015</t>
-  </si>
-  <si>
     <t>Nice, clean room and ground. GREAT Staff!</t>
   </si>
   <si>
@@ -411,12 +615,6 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t>DENWR, Owner at Candlewood Suites Denver Northeast - Brighton, responded to this reviewResponded May 6, 2015</t>
-  </si>
-  <si>
-    <t>Responded May 6, 2015</t>
-  </si>
-  <si>
     <t>I had five employees working in Brighton that needed rooms for random amounts of time, ranging from 1 night to just over a month.  The general manager and director of sales were my points of contact and they were extremely accommodating and very friendly.  I would go back just to support them, because that's how nice they were.  But other than that, our employees had commented on how nice of a hotel it was.  A hotel's quality usually stems from the staff, and I knew that if management was that good, then the hotel must be great.  Our employees said that it was very clean and came with all the amenities to make even the longest stay feel like a home away from home.  I would recommend this hotel to anyone staying in the area.  We had stayed at multiple other hotels in the area, all around the same price range, and this by far stands out and we will be going back to it.More</t>
   </si>
   <si>
@@ -471,6 +669,57 @@
     <t>Got in late and left early but our quick overnight couldn't have gone better. Fantastic front desk service, clean rooms, location right off the highway and lots of restaurants close by. I would recommend this hotel to anyone needing an overnight stay in the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r246361737-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>246361737</t>
+  </si>
+  <si>
+    <t>12/29/2014</t>
+  </si>
+  <si>
+    <t>Great find for a Pet Friendly Hotel</t>
+  </si>
+  <si>
+    <t>Traveling across the country with a pet you sometimes have to compromise and stay in properties that you would otherwise pass by.  We were happy to find the Candlewood Suites; clean and with a comfortable good quality bed it provided more amenities that we used for an overnight stay.  Conveniently located off the freeway, close to shopping and chain restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Candlewood Suites Denver Northeast - Brighton, responded to this reviewResponded December 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2014</t>
+  </si>
+  <si>
+    <t>Traveling across the country with a pet you sometimes have to compromise and stay in properties that you would otherwise pass by.  We were happy to find the Candlewood Suites; clean and with a comfortable good quality bed it provided more amenities that we used for an overnight stay.  Conveniently located off the freeway, close to shopping and chain restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r235397455-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>235397455</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for business for 2 weeks. Only thing is no pool. They do have a grill outside witch we used often. It's also nice that they have a full kitchen for long stays. The help could have done a better job cleaning are room seems how they only clean once a week. Are floors and carpet were still dirty. Staff is friendly and maintenance man was very nice and helpful. Would probably stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Candlewood Suites Denver Northeast - Brighton, responded to this reviewResponded October 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2014</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for business for 2 weeks. Only thing is no pool. They do have a grill outside witch we used often. It's also nice that they have a full kitchen for long stays. The help could have done a better job cleaning are room seems how they only clean once a week. Are floors and carpet were still dirty. Staff is friendly and maintenance man was very nice and helpful. Would probably stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r227261469-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
   </si>
   <si>
@@ -489,9 +738,6 @@
     <t>September 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Brian M, General Manager at Candlewood Suites Denver Northeast - Brighton, responded to this reviewResponded September 8, 2014</t>
   </si>
   <si>
@@ -544,6 +790,60 @@
   </si>
   <si>
     <t>Our family this summer was traveling from California to the east coast and we needed a place to stop at. So we stayed at the Candlewood Suites in Brighton and it was very clean, new, and the best staff I have ever had when staying at a hotel. I believe we had Nate check us in and was very helpful with providing us with great service and also directions to our families favorite restaurant Chili's. We also would like to thank Pam the housekeeper manager for being so kind to our kids. We definitely will be staying here in the future when passing through on our family road trips! Thanks again,The Carty FamilyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r211768596-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>211768596</t>
+  </si>
+  <si>
+    <t>06/23/2014</t>
+  </si>
+  <si>
+    <t>Very pleasant stay in a new Candlewood Suites</t>
+  </si>
+  <si>
+    <t>We had a very enjoyable stay at this immaculate hotel. Solidly built in June, 2013, it was a pleasure to stay there. Our one bedroom suite was very spacious with contemporary style furnishings. It would be quite easy to stay here for an extended period of time. The staff could not have been better. In addition to the free laundry, they have quite a few complimentary blu ray DVD's that can be checked out. The fitness room has had good quality equipment, and of course quite new. The kitchen in our suite had that we needed. Because of business, we spend 50+ nights in hotels every year. We have found that we feel better when we are able to cook some of our meals while on the road.  In our opinion this is one of the best hotels in the Brighton area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Candlewood Suites Denver Northeast - Brighton, responded to this reviewResponded June 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2014</t>
+  </si>
+  <si>
+    <t>We had a very enjoyable stay at this immaculate hotel. Solidly built in June, 2013, it was a pleasure to stay there. Our one bedroom suite was very spacious with contemporary style furnishings. It would be quite easy to stay here for an extended period of time. The staff could not have been better. In addition to the free laundry, they have quite a few complimentary blu ray DVD's that can be checked out. The fitness room has had good quality equipment, and of course quite new. The kitchen in our suite had that we needed. Because of business, we spend 50+ nights in hotels every year. We have found that we feel better when we are able to cook some of our meals while on the road.  In our opinion this is one of the best hotels in the Brighton area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r196916708-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>196916708</t>
+  </si>
+  <si>
+    <t>03/10/2014</t>
+  </si>
+  <si>
+    <t>Outstanding service!</t>
+  </si>
+  <si>
+    <t>I have stayed here three times over the past few months and cannot say enough about the service!  Everyone I came into contact with was, without exception; professional, efficient yet friendly and more than eager to make my stay comfortable.  I was greeted by name every day and always asked if there was anything they could do for me.  Yes, housekeeping is only one day a week and breakfast isn't included; but the washers and dryers are FREE and each room has a full sized refrigerator, microwave, two burner stovetop, basic cooking and eating utensils for use. Beds are comfortable and room layout well designed. The property is fairly new, clean, well maintained and close to shopping and restaurants for those not "dining in". Wi-Fi is adequate for business users.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>DENWR, Owner at Candlewood Suites Denver Northeast - Brighton, responded to this reviewResponded March 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2014</t>
+  </si>
+  <si>
+    <t>I have stayed here three times over the past few months and cannot say enough about the service!  Everyone I came into contact with was, without exception; professional, efficient yet friendly and more than eager to make my stay comfortable.  I was greeted by name every day and always asked if there was anything they could do for me.  Yes, housekeeping is only one day a week and breakfast isn't included; but the washers and dryers are FREE and each room has a full sized refrigerator, microwave, two burner stovetop, basic cooking and eating utensils for use. Beds are comfortable and room layout well designed. The property is fairly new, clean, well maintained and close to shopping and restaurants for those not "dining in". Wi-Fi is adequate for business users.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d4177718-r191386447-Candlewood_Suites_Denver_Northeast_Brighton-Brighton_Colorado.html</t>
@@ -1159,7 +1459,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1168,18 +1468,22 @@
         <v>52</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -1195,7 +1499,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -1204,47 +1508,43 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y3" t="s">
         <v>61</v>
-      </c>
-      <c r="X3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -1260,7 +1560,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1269,47 +1569,39 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>67</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>68</v>
       </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>69</v>
-      </c>
-      <c r="O4" t="s">
-        <v>70</v>
-      </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>4</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>71</v>
-      </c>
-      <c r="X4" t="s">
-        <v>72</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -1325,7 +1617,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1334,43 +1626,47 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>75</v>
       </c>
-      <c r="J5" t="s">
+      <c r="O5" t="s">
         <v>76</v>
       </c>
-      <c r="K5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>79</v>
-      </c>
-      <c r="O5" t="s">
-        <v>80</v>
-      </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
@@ -1386,7 +1682,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1395,43 +1691,47 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>85</v>
       </c>
-      <c r="J6" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L6" t="s">
-        <v>88</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>89</v>
-      </c>
       <c r="O6" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -1447,7 +1747,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1456,47 +1756,39 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O7" t="s">
-        <v>52</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="X7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -1512,7 +1804,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1521,25 +1813,25 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
         <v>101</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>102</v>
       </c>
-      <c r="K8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L8" t="s">
-        <v>104</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>105</v>
-      </c>
       <c r="O8" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1551,13 +1843,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="X8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
@@ -1573,7 +1865,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1582,49 +1874,43 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
         <v>110</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>111</v>
       </c>
-      <c r="K9" t="s">
+      <c r="O9" t="s">
         <v>112</v>
       </c>
-      <c r="L9" t="s">
-        <v>113</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>105</v>
-      </c>
-      <c r="O9" t="s">
-        <v>70</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>113</v>
+      </c>
+      <c r="X9" t="s">
         <v>114</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>115</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="10">
@@ -1640,7 +1926,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1649,25 +1935,25 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
         <v>118</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>119</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>120</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>121</v>
       </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>98</v>
-      </c>
       <c r="O10" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1728,16 +2014,14 @@
         <v>130</v>
       </c>
       <c r="O11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
         <v>5</v>
       </c>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
         <v>5</v>
@@ -1746,13 +2030,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
+        <v>122</v>
+      </c>
+      <c r="X11" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y11" t="s">
         <v>131</v>
-      </c>
-      <c r="X11" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="12">
@@ -1768,7 +2052,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1777,43 +2061,49 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" t="s">
         <v>135</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>136</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
         <v>137</v>
       </c>
-      <c r="L12" t="s">
-        <v>138</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>130</v>
-      </c>
       <c r="O12" t="s">
-        <v>60</v>
-      </c>
-      <c r="P12" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
+        <v>138</v>
+      </c>
+      <c r="X12" t="s">
         <v>139</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>140</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="13">
@@ -1829,7 +2119,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1838,38 +2128,32 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" t="s">
         <v>143</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>144</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>145</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
         <v>146</v>
       </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>147</v>
       </c>
-      <c r="O13" t="s">
-        <v>60</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
@@ -1923,7 +2207,7 @@
         <v>156</v>
       </c>
       <c r="O14" t="s">
-        <v>157</v>
+        <v>52</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1935,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
+        <v>157</v>
+      </c>
+      <c r="X14" t="s">
         <v>158</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>159</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15">
@@ -1957,7 +2241,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -1966,43 +2250,49 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" t="s">
         <v>162</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>163</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>164</v>
       </c>
-      <c r="L15" t="s">
-        <v>165</v>
-      </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
+        <v>165</v>
+      </c>
+      <c r="X15" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y15" t="s">
         <v>167</v>
-      </c>
-      <c r="X15" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="16">
@@ -2018,7 +2308,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2027,46 +2317,40 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" t="s">
         <v>171</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>172</v>
       </c>
-      <c r="K16" t="s">
-        <v>173</v>
-      </c>
-      <c r="L16" t="s">
-        <v>174</v>
-      </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="X16" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Y16" t="s">
         <v>175</v>
@@ -2106,20 +2390,24 @@
         <v>180</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
         <v>181</v>
       </c>
       <c r="O17" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
@@ -2167,29 +2455,25 @@
         <v>189</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
         <v>190</v>
       </c>
       <c r="O18" t="s">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2229,32 +2513,28 @@
         <v>195</v>
       </c>
       <c r="J19" t="s">
+        <v>187</v>
+      </c>
+      <c r="K19" t="s">
         <v>196</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>197</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>198</v>
       </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>199</v>
-      </c>
       <c r="O19" t="s">
-        <v>157</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="n">
         <v>5</v>
       </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="n">
         <v>5</v>
       </c>
@@ -2266,13 +2546,809 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
+        <v>191</v>
+      </c>
+      <c r="X19" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>62496</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
         <v>200</v>
       </c>
-      <c r="X19" t="s">
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
         <v>201</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="J20" t="s">
         <v>202</v>
+      </c>
+      <c r="K20" t="s">
+        <v>203</v>
+      </c>
+      <c r="L20" t="s">
+        <v>204</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>198</v>
+      </c>
+      <c r="O20" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>205</v>
+      </c>
+      <c r="X20" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>62496</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>209</v>
+      </c>
+      <c r="J21" t="s">
+        <v>210</v>
+      </c>
+      <c r="K21" t="s">
+        <v>211</v>
+      </c>
+      <c r="L21" t="s">
+        <v>212</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>213</v>
+      </c>
+      <c r="O21" t="s">
+        <v>76</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>214</v>
+      </c>
+      <c r="X21" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>62496</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>218</v>
+      </c>
+      <c r="J22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K22" t="s">
+        <v>220</v>
+      </c>
+      <c r="L22" t="s">
+        <v>221</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>222</v>
+      </c>
+      <c r="O22" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>223</v>
+      </c>
+      <c r="X22" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>62496</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>227</v>
+      </c>
+      <c r="J23" t="s">
+        <v>228</v>
+      </c>
+      <c r="K23" t="s">
+        <v>229</v>
+      </c>
+      <c r="L23" t="s">
+        <v>230</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>231</v>
+      </c>
+      <c r="X23" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>62496</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>234</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>235</v>
+      </c>
+      <c r="J24" t="s">
+        <v>236</v>
+      </c>
+      <c r="K24" t="s">
+        <v>237</v>
+      </c>
+      <c r="L24" t="s">
+        <v>238</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>239</v>
+      </c>
+      <c r="O24" t="s">
+        <v>147</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>240</v>
+      </c>
+      <c r="X24" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>62496</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>243</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>244</v>
+      </c>
+      <c r="J25" t="s">
+        <v>245</v>
+      </c>
+      <c r="K25" t="s">
+        <v>246</v>
+      </c>
+      <c r="L25" t="s">
+        <v>247</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>248</v>
+      </c>
+      <c r="O25" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>249</v>
+      </c>
+      <c r="X25" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>62496</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>252</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>253</v>
+      </c>
+      <c r="J26" t="s">
+        <v>254</v>
+      </c>
+      <c r="K26" t="s">
+        <v>255</v>
+      </c>
+      <c r="L26" t="s">
+        <v>256</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>248</v>
+      </c>
+      <c r="O26" t="s">
+        <v>76</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>249</v>
+      </c>
+      <c r="X26" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>62496</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>258</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>259</v>
+      </c>
+      <c r="J27" t="s">
+        <v>260</v>
+      </c>
+      <c r="K27" t="s">
+        <v>261</v>
+      </c>
+      <c r="L27" t="s">
+        <v>262</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>263</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>264</v>
+      </c>
+      <c r="X27" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>62496</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>267</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>268</v>
+      </c>
+      <c r="J28" t="s">
+        <v>269</v>
+      </c>
+      <c r="K28" t="s">
+        <v>270</v>
+      </c>
+      <c r="L28" t="s">
+        <v>271</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>272</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>273</v>
+      </c>
+      <c r="X28" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>62496</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>276</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>277</v>
+      </c>
+      <c r="J29" t="s">
+        <v>278</v>
+      </c>
+      <c r="K29" t="s">
+        <v>279</v>
+      </c>
+      <c r="L29" t="s">
+        <v>280</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>281</v>
+      </c>
+      <c r="O29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>282</v>
+      </c>
+      <c r="X29" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>62496</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>285</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>286</v>
+      </c>
+      <c r="J30" t="s">
+        <v>287</v>
+      </c>
+      <c r="K30" t="s">
+        <v>288</v>
+      </c>
+      <c r="L30" t="s">
+        <v>289</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>290</v>
+      </c>
+      <c r="O30" t="s">
+        <v>147</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>291</v>
+      </c>
+      <c r="X30" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>62496</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>294</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>295</v>
+      </c>
+      <c r="J31" t="s">
+        <v>296</v>
+      </c>
+      <c r="K31" t="s">
+        <v>297</v>
+      </c>
+      <c r="L31" t="s">
+        <v>298</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>299</v>
+      </c>
+      <c r="O31" t="s">
+        <v>147</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>300</v>
+      </c>
+      <c r="X31" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
